--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>david.rosval#8189</t>
+          <t>Andres R#0856</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sofimun#5148</t>
+          <t>david.rosval#8189</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,17 +588,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>sí</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -628,17 +628,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BotPrueba#6149</t>
+          <t>sofimun#5148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -668,22 +668,82 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BotPrueba#6149</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
